--- a/Template+de+Plan+de+tests.xlsx
+++ b/Template+de+Plan+de+tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UJM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UJM\Desktop\Oronico Projet 5 Openclassrooms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE89B7E-49BA-433D-879C-C3D673CE5690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3205DE-9C62-4AEE-BD9F-06218BBB454F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -80,9 +80,6 @@
     <t>addProductInCart</t>
   </si>
   <si>
-    <t>24 à 79</t>
-  </si>
-  <si>
     <t>La fonction doit retourner du code HTML affichant les données d'un produit si le paramètre passé est un objet contenant les données de ce produit. Le format d'objet à passer en argument est :                                                                                                                            {
     lenses: ["lentille 1","lentille 2", "etc..."],
     _id: "id du produit",
@@ -96,22 +93,7 @@
     <t>Appeler la fonction avec différentes valeurs de tests (objet dans le bon format, objet vide, tableau, chaine de caractère, sans paramètre etc...).                                                          Le test peut se faire directement depuis le fichier createProduct.js à la ligne 67.                                   Pour démarrer le test, on doit ajouter un produit dans le panier, et dans chrome par exemple, on va dans "outils de développement" =&gt; "Application" =&gt; "Session Storage" pour observer les données stockées.</t>
   </si>
   <si>
-    <t>productId_Exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La fonction doit ajouter un produit au panier puis afficher dans la page produit.html un message indiquant si le produit a été bien ajouté au panier ou pas. Elle prend en paramètre un objet et un id dont la valeur est la lentille choisie par l'utilisateur. L'objet doit être dans le format :                                                                                                                          {
-    _id: "id du produit",
-    price: "prix du produit"
-}                                                                                                                                 La fonctionne retourne "Uncaught TypeError" si l'id passé en second paramètre n'exitse pas ou est omis                                                                                                                             </t>
-  </si>
-  <si>
     <t>Si l'id (le second paramètre) existe, quelque soit le type de données du premier paramètre (string, number, objet vide), la fonction ne rencontre pas d'erreur dans on exécution mais les données stockées dans le panier seront incorrectes.</t>
-  </si>
-  <si>
-    <t>2 à 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les produits sont stockés dans le panier sous forme d'id. Alors pour vérifier qu'un produit existe dans le panier, cette fonction prend en paramètre l'id de ce produit et retourne false si l'id n'existe dans le panier. Aucun où le panier est vide, elle retourne null  </t>
   </si>
   <si>
     <t>3 à 33</t>
@@ -127,9 +109,6 @@
   </si>
   <si>
     <t>Ajouter des produits des produits dans le panier, puis appelez la fonction dans la console par exemple avec différentes valeurs de tests (boléan, string, number etc...).</t>
-  </si>
-  <si>
-    <t>Ajouter des produits des produits dans le panier, puis appelez la fonction dans la console avec différentes valeurs de tests (id existant, string etc...)</t>
   </si>
   <si>
     <t>1 à 103</t>
@@ -196,6 +175,15 @@
   </si>
   <si>
     <t xml:space="preserve">Appeler la fonction avec différentes valeurs de tests (un nombre quelconque), et on observe la valeur retournée, avec un console.log par exemple. Le test peut se faire dans le fichier panier.js </t>
+  </si>
+  <si>
+    <t>7 à 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fonction doit ajouter un produit au panier puis afficher dans la page produit.html un message indiquant si le produit a été bien ajouté au panier ou pas. Elle prend en paramètre un objet et un id dont la valeur est la lentille choisie par l'utilisateur. L'objet doit être dans le format :                                                                                                                          {
+    _id: "id du produit",
+    price: "prix du produit"
+}                                                                                                                                 La fonctionne retourne "Uncaught TypeError" si l'id passé en second paramètre n'existe pas ou est omis                                                                                                                             </t>
   </si>
 </sst>
 </file>
@@ -509,11 +497,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -600,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>14</v>
@@ -612,94 +600,94 @@
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="191.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="191.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -713,44 +701,31 @@
         <v>41</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="E11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,10 +738,10 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+    <row r="15" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
@@ -788,7 +763,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="4:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -913,7 +888,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -5682,11 +5657,6 @@
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
-    </row>
-    <row r="999" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D999" s="4"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
